--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,27 +627,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 11990-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 11990-2023.xlsx", "A 11990-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 11990-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 11990-2023.png", "A 11990-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 11990-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 11990-2023.docx", "A 11990-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 11990-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 11990-2023.docx", "A 11990-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 11990-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 11990-2023.docx", "A 11990-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 11990-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 11990-2023.docx", "A 11990-2023")</f>
         <v/>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -713,27 +713,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 30147-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 30147-2020.xlsx", "A 30147-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 30147-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 30147-2020.png", "A 30147-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 30147-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 30147-2020.docx", "A 30147-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 30147-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 30147-2020.docx", "A 30147-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 30147-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 30147-2020.docx", "A 30147-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 30147-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 30147-2020.docx", "A 30147-2020")</f>
         <v/>
       </c>
     </row>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 24802-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 24802-2023.xlsx", "A 24802-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 24802-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 24802-2023.png", "A 24802-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 24802-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 24802-2023.docx", "A 24802-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 24802-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 24802-2023.docx", "A 24802-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 24802-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 24802-2023.docx", "A 24802-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 24802-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 24802-2023.docx", "A 24802-2023")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -889,27 +889,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 66106-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 66106-2018.xlsx", "A 66106-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 66106-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 66106-2018.png", "A 66106-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 66106-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 66106-2018.docx", "A 66106-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 66106-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 66106-2018.docx", "A 66106-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 66106-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 66106-2018.docx", "A 66106-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 66106-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 66106-2018.docx", "A 66106-2018")</f>
         <v/>
       </c>
     </row>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -974,27 +974,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 16460-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 16460-2019.xlsx", "A 16460-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 16460-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 16460-2019.png", "A 16460-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 16460-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 16460-2019.docx", "A 16460-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 16460-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 16460-2019.docx", "A 16460-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 16460-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 16460-2019.docx", "A 16460-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 16460-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 16460-2019.docx", "A 16460-2019")</f>
         <v/>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,27 +1059,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 46192-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 46192-2019.xlsx", "A 46192-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 46192-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 46192-2019.png", "A 46192-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 46192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 46192-2019.docx", "A 46192-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 46192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 46192-2019.docx", "A 46192-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 46192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 46192-2019.docx", "A 46192-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 46192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 46192-2019.docx", "A 46192-2019")</f>
         <v/>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1149,27 +1149,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 48775-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 48775-2019.xlsx", "A 48775-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 48775-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 48775-2019.png", "A 48775-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 48775-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 48775-2019.docx", "A 48775-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 48775-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 48775-2019.docx", "A 48775-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 48775-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 48775-2019.docx", "A 48775-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 48775-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 48775-2019.docx", "A 48775-2019")</f>
         <v/>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1234,27 +1234,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 9731-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 9731-2020.xlsx", "A 9731-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 9731-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 9731-2020.png", "A 9731-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 9731-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 9731-2020.docx", "A 9731-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 9731-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 9731-2020.docx", "A 9731-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 9731-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 9731-2020.docx", "A 9731-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 9731-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 9731-2020.docx", "A 9731-2020")</f>
         <v/>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1319,27 +1319,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 13645-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 13645-2020.xlsx", "A 13645-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 13645-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 13645-2020.png", "A 13645-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 13645-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 13645-2020.docx", "A 13645-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 13645-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 13645-2020.docx", "A 13645-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 13645-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 13645-2020.docx", "A 13645-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 13645-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 13645-2020.docx", "A 13645-2020")</f>
         <v/>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,27 +1404,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 30998-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 30998-2020.xlsx", "A 30998-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 30998-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 30998-2020.png", "A 30998-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 30998-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 30998-2020.docx", "A 30998-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 30998-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 30998-2020.docx", "A 30998-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 30998-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 30998-2020.docx", "A 30998-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 30998-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 30998-2020.docx", "A 30998-2020")</f>
         <v/>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1494,27 +1494,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 32799-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 32799-2020.xlsx", "A 32799-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 32799-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 32799-2020.png", "A 32799-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 32799-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 32799-2020.docx", "A 32799-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 32799-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 32799-2020.docx", "A 32799-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 32799-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 32799-2020.docx", "A 32799-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 32799-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 32799-2020.docx", "A 32799-2020")</f>
         <v/>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1579,31 +1579,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 15729-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 15729-2022.xlsx", "A 15729-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 15729-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 15729-2022.png", "A 15729-2022")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/knärot/A 15729-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/knärot/A 15729-2022.png", "A 15729-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 15729-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 15729-2022.docx", "A 15729-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 15729-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 15729-2022.docx", "A 15729-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 15729-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 15729-2022.docx", "A 15729-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 15729-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 15729-2022.docx", "A 15729-2022")</f>
         <v/>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,27 +1673,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 24698-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 24698-2022.xlsx", "A 24698-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 24698-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 24698-2022.png", "A 24698-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 24698-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 24698-2022.docx", "A 24698-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 24698-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 24698-2022.docx", "A 24698-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 24698-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 24698-2022.docx", "A 24698-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 24698-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 24698-2022.docx", "A 24698-2022")</f>
         <v/>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1758,27 +1758,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 25688-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 25688-2022.xlsx", "A 25688-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 25688-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 25688-2022.png", "A 25688-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 25688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 25688-2022.docx", "A 25688-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 25688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 25688-2022.docx", "A 25688-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 25688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 25688-2022.docx", "A 25688-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 25688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 25688-2022.docx", "A 25688-2022")</f>
         <v/>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1848,31 +1848,31 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 53259-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 53259-2022.xlsx", "A 53259-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 53259-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 53259-2022.png", "A 53259-2022")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/knärot/A 53259-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/knärot/A 53259-2022.png", "A 53259-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 53259-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 53259-2022.docx", "A 53259-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 53259-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 53259-2022.docx", "A 53259-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 53259-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 53259-2022.docx", "A 53259-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 53259-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 53259-2022.docx", "A 53259-2022")</f>
         <v/>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1942,27 +1942,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 58774-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 58774-2022.xlsx", "A 58774-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 58774-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 58774-2022.png", "A 58774-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 58774-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 58774-2022.docx", "A 58774-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 58774-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 58774-2022.docx", "A 58774-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 58774-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 58774-2022.docx", "A 58774-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 58774-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 58774-2022.docx", "A 58774-2022")</f>
         <v/>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2027,27 +2027,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 5015-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 5015-2023.xlsx", "A 5015-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 5015-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 5015-2023.png", "A 5015-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 5015-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 5015-2023.docx", "A 5015-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 5015-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 5015-2023.docx", "A 5015-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 5015-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 5015-2023.docx", "A 5015-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 5015-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 5015-2023.docx", "A 5015-2023")</f>
         <v/>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2112,27 +2112,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 6378-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 6378-2023.xlsx", "A 6378-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 6378-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 6378-2023.png", "A 6378-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 6378-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 6378-2023.docx", "A 6378-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 6378-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 6378-2023.docx", "A 6378-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 6378-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 6378-2023.docx", "A 6378-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 6378-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 6378-2023.docx", "A 6378-2023")</f>
         <v/>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2197,27 +2197,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 21029-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 21029-2023.xlsx", "A 21029-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 21029-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 21029-2023.png", "A 21029-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 21029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 21029-2023.docx", "A 21029-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 21029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 21029-2023.docx", "A 21029-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 21029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 21029-2023.docx", "A 21029-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 21029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 21029-2023.docx", "A 21029-2023")</f>
         <v/>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2287,27 +2287,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 22513-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 22513-2023.xlsx", "A 22513-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 22513-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 22513-2023.png", "A 22513-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 22513-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 22513-2023.docx", "A 22513-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 22513-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 22513-2023.docx", "A 22513-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 22513-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 22513-2023.docx", "A 22513-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 22513-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 22513-2023.docx", "A 22513-2023")</f>
         <v/>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2377,27 +2377,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 23161-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/artfynd/A 23161-2023.xlsx", "A 23161-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 23161-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/kartor/A 23161-2023.png", "A 23161-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 23161-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 23161-2023.docx", "A 23161-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 23161-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 23161-2023.docx", "A 23161-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 23161-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 23161-2023.docx", "A 23161-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 23161-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 23161-2023.docx", "A 23161-2023")</f>
         <v/>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17046,23 +17046,23 @@
       </c>
       <c r="R272" s="2" t="inlineStr"/>
       <c r="U272">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/knärot/A 35523-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/knärot/A 35523-2022.png", "A 35523-2022")</f>
         <v/>
       </c>
       <c r="V272">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 35523-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomål/A 35523-2022.docx", "A 35523-2022")</f>
         <v/>
       </c>
       <c r="W272">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 35523-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/klagomålsmail/A 35523-2022.docx", "A 35523-2022")</f>
         <v/>
       </c>
       <c r="X272">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 35523-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsyn/A 35523-2022.docx", "A 35523-2022")</f>
         <v/>
       </c>
       <c r="Y272">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 35523-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SANDVIKEN/tillsynsmail/A 35523-2022.docx", "A 35523-2022")</f>
         <v/>
       </c>
     </row>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt SANDVIKEN.xlsx
+++ b/Översikt SANDVIKEN.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44007</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>45084</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43718</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43727</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43881</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>44011</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44020</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44663</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44727</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44733</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>44903</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>44958</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44965</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45061</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>45071</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45075</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43396</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43425</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43433</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43439</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>43452</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>43453</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>43485</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43500</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43501</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43532</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43535</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43545</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43565</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43565</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43579</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43585</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43595</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43595</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>43614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>43628</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43633</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>43636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43643</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43651</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43651</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43655</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43657</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43657</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43676</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43689</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43690</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43696</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43707</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43712</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43713</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43713</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43718</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43718</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43721</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43727</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43727</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43727</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43727</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43727</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43727</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43732</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>43745</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43749</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43759</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43761</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43761</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43767</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>43768</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>43769</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>43770</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43773</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43782</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43782</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43783</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43788</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43797</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43816</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43829</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43839</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43845</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43858</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43867</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43871</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>43871</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43879</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43882</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43886</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43916</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43917</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>43923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>43923</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>43923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         <v>43923</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9775,7 +9775,7 @@
         <v>43929</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>43937</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
         <v>43945</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43958</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43993</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43994</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43999</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>44005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44007</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44007</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44007</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44007</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44020</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44027</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44029</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44040</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44041</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44041</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44041</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44041</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44042</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44054</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>44061</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44067</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44067</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44096</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44096</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44097</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>44102</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44112</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44132</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44171</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44200</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44230</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44235</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44236</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44236</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44247</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>44252</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44265</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44273</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44321</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44322</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44335</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44336</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44342</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>44347</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44347</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44357</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44358</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44379</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44421</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44434</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44441</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>44441</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>44448</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>44448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44448</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44496</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44509</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44515</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44524</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44536</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44543</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>44545</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44551</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44553</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44582</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44587</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44587</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44595</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44596</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44603</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44603</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44603</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44637</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>44658</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>44672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44679</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44705</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44714</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44744</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44744</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44748</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44750</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44754</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44756</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44763</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44768</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44784</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44796</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44799</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44812</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44829</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44829</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44845</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44845</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>44854</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44854</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44854</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44855</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44861</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44868</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44874</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44874</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>44875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44886</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44887</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>44889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44895</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44901</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44903</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44907</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>44907</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44908</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44908</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44918</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44918</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44936</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44949</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44949</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44955</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44956</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44964</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44972</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44980</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44988</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44988</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44988</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44988</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44988</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44988</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44988</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44988</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44988</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44988</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44988</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44988</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44988</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44994</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44995</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>45002</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>45012</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>45022</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>45022</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>45022</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>45022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45034</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45034</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45036</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45040</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45040</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45041</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>45041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         <v>45049</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
         <v>45049</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
         <v>45049</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>45056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>45058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>45058</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>45061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45063</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45069</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>45069</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>45075</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>45075</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>45076</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45076</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45089</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>45094</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45094</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45096</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45099</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45103</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45104</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45104</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>45104</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>45110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>45112</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45112</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45126</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45162</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45162</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45162</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45162</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
